--- a/Data/Processing/2024-02-02/STYRENIX.xlsx
+++ b/Data/Processing/2024-02-02/STYRENIX.xlsx
@@ -1269,7 +1269,7 @@
         <v>674.83</v>
       </c>
       <c r="D15">
-        <v>652.04</v>
+        <v>652.05</v>
       </c>
       <c r="E15">
         <v>663.5700000000001</v>
@@ -1290,7 +1290,7 @@
         <v>1.94</v>
       </c>
       <c r="K15">
-        <v>-1.49</v>
+        <v>-1.48</v>
       </c>
       <c r="L15">
         <v>0</v>
